--- a/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09302938018042387</v>
+        <v>0.0940485550902396</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1780371446576474</v>
+        <v>0.1791601050906657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1438595017606723</v>
+        <v>0.1438992419839491</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.147198323972581</v>
+        <v>0.1455695226389555</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2249428789781265</v>
+        <v>0.2253421139088826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1787753425812072</v>
+        <v>0.1796953741726471</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09391941300927623</v>
+        <v>0.09339287271166115</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1903749435619374</v>
+        <v>0.1905140804947238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1479995482639284</v>
+        <v>0.1490901813399525</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.134811245825538</v>
+        <v>0.1374152743941557</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2337743369168531</v>
+        <v>0.2311215491997208</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1783761168562102</v>
+        <v>0.1785257315700706</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0897735366632877</v>
+        <v>0.09050056594335477</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1447146110164754</v>
+        <v>0.1440464101334129</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1233374882868291</v>
+        <v>0.1242162680684989</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1374077157866994</v>
+        <v>0.1376015295309851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1942543612729988</v>
+        <v>0.1904726446774177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1570264871068764</v>
+        <v>0.157630196170187</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.2393543538718565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2074644201887946</v>
+        <v>0.2074644201887947</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1490745879506983</v>
+        <v>0.1479284055999181</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2158802000850159</v>
+        <v>0.2187209607347301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1905904265511945</v>
+        <v>0.1909837473589484</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1969565558473847</v>
+        <v>0.1941993404772147</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2617311553156353</v>
+        <v>0.2616195017306859</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2239655008658107</v>
+        <v>0.2235273627945365</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1296060271455767</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.208222124193384</v>
+        <v>0.2082221241933839</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.170018162692412</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1184468295219726</v>
+        <v>0.1185745432928703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1969858243523966</v>
+        <v>0.1974166045319189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1618698622266378</v>
+        <v>0.160815124806613</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1426650523473871</v>
+        <v>0.1421486475217037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2200274891240126</v>
+        <v>0.2198950086213996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1781401317345386</v>
+        <v>0.1786375909643597</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>64256</v>
+        <v>64960</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>130711</v>
+        <v>131536</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>204984</v>
+        <v>205040</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>101671</v>
+        <v>100546</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>165149</v>
+        <v>165442</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>254735</v>
+        <v>256046</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>98514</v>
+        <v>97961</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>203982</v>
+        <v>204131</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>313817</v>
+        <v>316129</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>141406</v>
+        <v>144137</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>250483</v>
+        <v>247641</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>378227</v>
+        <v>378544</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>72095</v>
+        <v>72679</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>117546</v>
+        <v>117003</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>199231</v>
+        <v>200651</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>110348</v>
+        <v>110504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>157785</v>
+        <v>154713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>253650</v>
+        <v>254625</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>147593</v>
+        <v>146458</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>241579</v>
+        <v>244758</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>401975</v>
+        <v>402805</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>194999</v>
+        <v>192269</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>292888</v>
+        <v>292763</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>472367</v>
+        <v>471442</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>418444</v>
+        <v>418896</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>736127</v>
+        <v>737737</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1176748</v>
+        <v>1169080</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>504002</v>
+        <v>502177</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>822233</v>
+        <v>821738</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1295028</v>
+        <v>1298645</v>
       </c>
     </row>
     <row r="24">
